--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Rarres2</t>
   </si>
   <si>
     <t>Cmklr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H2">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I2">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J2">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2176863333333333</v>
+        <v>3.019277</v>
       </c>
       <c r="N2">
-        <v>0.6530589999999999</v>
+        <v>9.057831</v>
       </c>
       <c r="O2">
-        <v>0.002999824441144956</v>
+        <v>0.0408783237736836</v>
       </c>
       <c r="P2">
-        <v>0.002999824441144956</v>
+        <v>0.0408783237736836</v>
       </c>
       <c r="Q2">
-        <v>0.8526184472324445</v>
+        <v>4.403690986425</v>
       </c>
       <c r="R2">
-        <v>7.673566025092001</v>
+        <v>39.63321887782499</v>
       </c>
       <c r="S2">
-        <v>0.0001752682421744656</v>
+        <v>0.001032289363163821</v>
       </c>
       <c r="T2">
-        <v>0.0001752682421744656</v>
+        <v>0.001032289363163821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H3">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I3">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J3">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>99.499212</v>
       </c>
       <c r="O3">
-        <v>0.4570493141236297</v>
+        <v>0.4490435959074953</v>
       </c>
       <c r="P3">
-        <v>0.4570493141236298</v>
+        <v>0.4490435959074953</v>
       </c>
       <c r="Q3">
-        <v>129.903827427984</v>
+        <v>48.37402939409999</v>
       </c>
       <c r="R3">
-        <v>1169.134446851856</v>
+        <v>435.3662645469</v>
       </c>
       <c r="S3">
-        <v>0.02670363931127892</v>
+        <v>0.0113395776749182</v>
       </c>
       <c r="T3">
-        <v>0.02670363931127892</v>
+        <v>0.0113395776749182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H4">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I4">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J4">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.636316666666667</v>
+        <v>1.677177666666666</v>
       </c>
       <c r="N4">
-        <v>4.90895</v>
+        <v>5.031533</v>
       </c>
       <c r="O4">
-        <v>0.02254924622485645</v>
+        <v>0.02270749311308342</v>
       </c>
       <c r="P4">
-        <v>0.02254924622485645</v>
+        <v>0.02270749311308342</v>
       </c>
       <c r="Q4">
-        <v>6.409009486955556</v>
+        <v>2.446205556274999</v>
       </c>
       <c r="R4">
-        <v>57.6810853826</v>
+        <v>22.015850006475</v>
       </c>
       <c r="S4">
-        <v>0.001317466013671572</v>
+        <v>0.000573426242585863</v>
       </c>
       <c r="T4">
-        <v>0.001317466013671572</v>
+        <v>0.0005734262425858631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.916729333333334</v>
+        <v>1.458525</v>
       </c>
       <c r="H5">
-        <v>11.750188</v>
+        <v>4.375575</v>
       </c>
       <c r="I5">
-        <v>0.05842616646845182</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="J5">
-        <v>0.05842616646845181</v>
+        <v>0.02525273220298681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.54595066666667</v>
+        <v>35.99723933333333</v>
       </c>
       <c r="N5">
-        <v>112.637852</v>
+        <v>107.991718</v>
       </c>
       <c r="O5">
-        <v>0.5174016152103689</v>
+        <v>0.4873705872057377</v>
       </c>
       <c r="P5">
-        <v>0.5174016152103689</v>
+        <v>0.4873705872057378</v>
       </c>
       <c r="Q5">
-        <v>147.0573263240196</v>
+        <v>52.50287349865</v>
       </c>
       <c r="R5">
-        <v>1323.515936916176</v>
+        <v>472.52586148785</v>
       </c>
       <c r="S5">
-        <v>0.03022979290132687</v>
+        <v>0.01230743892231892</v>
       </c>
       <c r="T5">
-        <v>0.03022979290132686</v>
+        <v>0.01230743892231893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>145.6064</v>
       </c>
       <c r="I6">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J6">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2176863333333333</v>
+        <v>3.019277</v>
       </c>
       <c r="N6">
-        <v>0.6530589999999999</v>
+        <v>9.057831</v>
       </c>
       <c r="O6">
-        <v>0.002999824441144956</v>
+        <v>0.0408783237736836</v>
       </c>
       <c r="P6">
-        <v>0.002999824441144956</v>
+        <v>0.0408783237736836</v>
       </c>
       <c r="Q6">
-        <v>10.56550777528889</v>
+        <v>146.5420181909334</v>
       </c>
       <c r="R6">
-        <v>95.08956997759999</v>
+        <v>1318.8781637184</v>
       </c>
       <c r="S6">
-        <v>0.002171895273280062</v>
+        <v>0.0343515853181757</v>
       </c>
       <c r="T6">
-        <v>0.002171895273280063</v>
+        <v>0.0343515853181757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>145.6064</v>
       </c>
       <c r="I7">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J7">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>99.499212</v>
       </c>
       <c r="O7">
-        <v>0.4570493141236297</v>
+        <v>0.4490435959074953</v>
       </c>
       <c r="P7">
-        <v>0.4570493141236298</v>
+        <v>0.4490435959074953</v>
       </c>
       <c r="Q7">
         <v>1609.7468957952</v>
@@ -883,10 +883,10 @@
         <v>14487.7220621568</v>
       </c>
       <c r="S7">
-        <v>0.3309071128916237</v>
+        <v>0.3773481388766528</v>
       </c>
       <c r="T7">
-        <v>0.3309071128916237</v>
+        <v>0.3773481388766529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,40 +915,40 @@
         <v>145.6064</v>
       </c>
       <c r="I8">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J8">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.636316666666667</v>
+        <v>1.677177666666666</v>
       </c>
       <c r="N8">
-        <v>4.90895</v>
+        <v>5.031533</v>
       </c>
       <c r="O8">
-        <v>0.02254924622485645</v>
+        <v>0.02270749311308342</v>
       </c>
       <c r="P8">
-        <v>0.02254924622485645</v>
+        <v>0.02270749311308342</v>
       </c>
       <c r="Q8">
-        <v>79.41939303111111</v>
+        <v>81.40260073457777</v>
       </c>
       <c r="R8">
-        <v>714.77453728</v>
+        <v>732.6234066111999</v>
       </c>
       <c r="S8">
-        <v>0.01632582247816531</v>
+        <v>0.01908195627967849</v>
       </c>
       <c r="T8">
-        <v>0.01632582247816532</v>
+        <v>0.01908195627967849</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>145.6064</v>
       </c>
       <c r="I9">
-        <v>0.7240074597335789</v>
+        <v>0.84033742450786</v>
       </c>
       <c r="J9">
-        <v>0.7240074597335789</v>
+        <v>0.8403374245078601</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.54595066666667</v>
+        <v>35.99723933333333</v>
       </c>
       <c r="N9">
-        <v>112.637852</v>
+        <v>107.991718</v>
       </c>
       <c r="O9">
-        <v>0.5174016152103689</v>
+        <v>0.4873705872057377</v>
       </c>
       <c r="P9">
-        <v>0.5174016152103689</v>
+        <v>0.4873705872057378</v>
       </c>
       <c r="Q9">
-        <v>1822.310237050311</v>
+        <v>1747.142809755022</v>
       </c>
       <c r="R9">
-        <v>16400.7921334528</v>
+        <v>15724.2852877952</v>
       </c>
       <c r="S9">
-        <v>0.3746026290905098</v>
+        <v>0.409555744033353</v>
       </c>
       <c r="T9">
-        <v>0.3746026290905098</v>
+        <v>0.4095557440333531</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.58505066666667</v>
+        <v>7.712822</v>
       </c>
       <c r="H10">
-        <v>43.755152</v>
+        <v>23.138466</v>
       </c>
       <c r="I10">
-        <v>0.2175663737979692</v>
+        <v>0.1335389029981009</v>
       </c>
       <c r="J10">
-        <v>0.2175663737979692</v>
+        <v>0.133538902998101</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2176863333333333</v>
+        <v>3.019277</v>
       </c>
       <c r="N10">
-        <v>0.6530589999999999</v>
+        <v>9.057831</v>
       </c>
       <c r="O10">
-        <v>0.002999824441144956</v>
+        <v>0.0408783237736836</v>
       </c>
       <c r="P10">
-        <v>0.002999824441144956</v>
+        <v>0.0408783237736836</v>
       </c>
       <c r="Q10">
-        <v>3.174966201107555</v>
+        <v>23.287146069694</v>
       </c>
       <c r="R10">
-        <v>28.574695809968</v>
+        <v>209.584314627246</v>
       </c>
       <c r="S10">
-        <v>0.0006526609256904275</v>
+        <v>0.005458846513138897</v>
       </c>
       <c r="T10">
-        <v>0.0006526609256904276</v>
+        <v>0.005458846513138898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.58505066666667</v>
+        <v>7.712822</v>
       </c>
       <c r="H11">
-        <v>43.755152</v>
+        <v>23.138466</v>
       </c>
       <c r="I11">
-        <v>0.2175663737979692</v>
+        <v>0.1335389029981009</v>
       </c>
       <c r="J11">
-        <v>0.2175663737979692</v>
+        <v>0.133538902998101</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>99.499212</v>
       </c>
       <c r="O11">
-        <v>0.4570493141236297</v>
+        <v>0.4490435959074953</v>
       </c>
       <c r="P11">
-        <v>0.4570493141236298</v>
+        <v>0.4490435959074953</v>
       </c>
       <c r="Q11">
-        <v>483.733682771136</v>
+        <v>255.806570432088</v>
       </c>
       <c r="R11">
-        <v>4353.603144940224</v>
+        <v>2302.259133888792</v>
       </c>
       <c r="S11">
-        <v>0.09943856192072707</v>
+        <v>0.05996478919580944</v>
       </c>
       <c r="T11">
-        <v>0.09943856192072709</v>
+        <v>0.05996478919580946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.58505066666667</v>
+        <v>7.712822</v>
       </c>
       <c r="H12">
-        <v>43.755152</v>
+        <v>23.138466</v>
       </c>
       <c r="I12">
-        <v>0.2175663737979692</v>
+        <v>0.1335389029981009</v>
       </c>
       <c r="J12">
-        <v>0.2175663737979692</v>
+        <v>0.133538902998101</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.636316666666667</v>
+        <v>1.677177666666666</v>
       </c>
       <c r="N12">
-        <v>4.90895</v>
+        <v>5.031533</v>
       </c>
       <c r="O12">
-        <v>0.02254924622485645</v>
+        <v>0.02270749311308342</v>
       </c>
       <c r="P12">
-        <v>0.02254924622485645</v>
+        <v>0.02270749311308342</v>
       </c>
       <c r="Q12">
-        <v>23.86576149004445</v>
+        <v>12.93577280537533</v>
       </c>
       <c r="R12">
-        <v>214.7918534104</v>
+        <v>116.421955248378</v>
       </c>
       <c r="S12">
-        <v>0.004905957733019565</v>
+        <v>0.003032333720158092</v>
       </c>
       <c r="T12">
-        <v>0.004905957733019566</v>
+        <v>0.003032333720158093</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.712822</v>
+      </c>
+      <c r="H13">
+        <v>23.138466</v>
+      </c>
+      <c r="I13">
+        <v>0.1335389029981009</v>
+      </c>
+      <c r="J13">
+        <v>0.133538902998101</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>35.99723933333333</v>
+      </c>
+      <c r="N13">
+        <v>107.991718</v>
+      </c>
+      <c r="O13">
+        <v>0.4873705872057377</v>
+      </c>
+      <c r="P13">
+        <v>0.4873705872057378</v>
+      </c>
+      <c r="Q13">
+        <v>277.6402994693987</v>
+      </c>
+      <c r="R13">
+        <v>2498.762695224588</v>
+      </c>
+      <c r="S13">
+        <v>0.0650829335689945</v>
+      </c>
+      <c r="T13">
+        <v>0.06508293356899451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>14.58505066666667</v>
-      </c>
-      <c r="H13">
-        <v>43.755152</v>
-      </c>
-      <c r="I13">
-        <v>0.2175663737979692</v>
-      </c>
-      <c r="J13">
-        <v>0.2175663737979692</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>37.54595066666667</v>
-      </c>
-      <c r="N13">
-        <v>112.637852</v>
-      </c>
-      <c r="O13">
-        <v>0.5174016152103689</v>
-      </c>
-      <c r="P13">
-        <v>0.5174016152103689</v>
-      </c>
-      <c r="Q13">
-        <v>547.6095928015005</v>
-      </c>
-      <c r="R13">
-        <v>4928.486335213504</v>
-      </c>
-      <c r="S13">
-        <v>0.1125691932185321</v>
-      </c>
-      <c r="T13">
-        <v>0.1125691932185321</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.150909</v>
+      </c>
+      <c r="I14">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J14">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.019277</v>
+      </c>
+      <c r="N14">
+        <v>9.057831</v>
+      </c>
+      <c r="O14">
+        <v>0.0408783237736836</v>
+      </c>
+      <c r="P14">
+        <v>0.0408783237736836</v>
+      </c>
+      <c r="Q14">
+        <v>0.151878690931</v>
+      </c>
+      <c r="R14">
+        <v>1.366908218379</v>
+      </c>
+      <c r="S14">
+        <v>3.560257920517625E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.560257920517626E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.150909</v>
+      </c>
+      <c r="I15">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J15">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>33.166404</v>
+      </c>
+      <c r="N15">
+        <v>99.499212</v>
+      </c>
+      <c r="O15">
+        <v>0.4490435959074953</v>
+      </c>
+      <c r="P15">
+        <v>0.4490435959074953</v>
+      </c>
+      <c r="Q15">
+        <v>1.668369620412</v>
+      </c>
+      <c r="R15">
+        <v>15.015326583708</v>
+      </c>
+      <c r="S15">
+        <v>0.0003910901601147806</v>
+      </c>
+      <c r="T15">
+        <v>0.0003910901601147807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.150909</v>
+      </c>
+      <c r="I16">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J16">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.677177666666666</v>
+      </c>
+      <c r="N16">
+        <v>5.031533</v>
+      </c>
+      <c r="O16">
+        <v>0.02270749311308342</v>
+      </c>
+      <c r="P16">
+        <v>0.02270749311308342</v>
+      </c>
+      <c r="Q16">
+        <v>0.08436706816633331</v>
+      </c>
+      <c r="R16">
+        <v>0.7593036134969999</v>
+      </c>
+      <c r="S16">
+        <v>1.97768706609737E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.977687066097371E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.150909</v>
+      </c>
+      <c r="I17">
+        <v>0.0008709402910521559</v>
+      </c>
+      <c r="J17">
+        <v>0.000870940291052156</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>35.99723933333333</v>
+      </c>
+      <c r="N17">
+        <v>107.991718</v>
+      </c>
+      <c r="O17">
+        <v>0.4873705872057377</v>
+      </c>
+      <c r="P17">
+        <v>0.4873705872057378</v>
+      </c>
+      <c r="Q17">
+        <v>1.810769130184666</v>
+      </c>
+      <c r="R17">
+        <v>16.296922171662</v>
+      </c>
+      <c r="S17">
+        <v>0.0004244706810712253</v>
+      </c>
+      <c r="T17">
+        <v>0.0004244706810712254</v>
       </c>
     </row>
   </sheetData>
